--- a/Bases/Informes_2023.xlsx
+++ b/Bases/Informes_2023.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Leyenda" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Componentes!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Componentes!$A$1:$R$423</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Graduacion!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -3581,9 +3581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3603,13 +3600,16 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3909,8 +3909,8 @@
   <dimension ref="A1:R423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P418" sqref="P418:P423"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5507,18 +5507,18 @@
       <c r="D31" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
       <c r="Q31" s="15">
         <v>127.502</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="O32" s="9">
         <v>0.80200000000000005</v>
       </c>
-      <c r="P32" s="33">
+      <c r="P32" s="32">
         <v>0.56100000000000005</v>
       </c>
       <c r="Q32" s="15">
@@ -5616,7 +5616,7 @@
       <c r="O33" s="9">
         <v>0.94199999999999995</v>
       </c>
-      <c r="P33" s="33">
+      <c r="P33" s="32">
         <v>0.65900000000000003</v>
       </c>
       <c r="Q33" s="15">
@@ -6087,20 +6087,20 @@
         <v>286</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
+        <v>298</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
       <c r="Q43" s="15">
         <v>100</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="O74" s="9">
         <v>26.986999999999998</v>
       </c>
-      <c r="P74" s="33">
+      <c r="P74" s="32">
         <v>0</v>
       </c>
       <c r="Q74" s="15">
@@ -8066,7 +8066,7 @@
       <c r="O81" s="9">
         <v>307.86599999999999</v>
       </c>
-      <c r="P81" s="33">
+      <c r="P81" s="32">
         <v>100</v>
       </c>
       <c r="Q81" s="15">
@@ -8168,7 +8168,7 @@
       <c r="O83" s="9">
         <v>1.1859999999999999</v>
       </c>
-      <c r="P83" s="33">
+      <c r="P83" s="32">
         <v>0.59299999999999997</v>
       </c>
       <c r="Q83" s="15">
@@ -8220,7 +8220,7 @@
       <c r="O84" s="9">
         <v>1.1519999999999999</v>
       </c>
-      <c r="P84" s="33">
+      <c r="P84" s="32">
         <v>0.57599999999999996</v>
       </c>
       <c r="Q84" s="15">
@@ -8604,7 +8604,7 @@
       <c r="I92" s="6">
         <v>19.167000000000002</v>
       </c>
-      <c r="J92" s="29"/>
+      <c r="J92" s="28"/>
       <c r="K92" s="6" t="s">
         <v>131</v>
       </c>
@@ -8652,7 +8652,7 @@
       <c r="I93" s="6">
         <v>13.167</v>
       </c>
-      <c r="J93" s="29"/>
+      <c r="J93" s="28"/>
       <c r="K93" s="6" t="s">
         <v>131</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="I94" s="6">
         <v>12.532999999999999</v>
       </c>
-      <c r="J94" s="29"/>
+      <c r="J94" s="28"/>
       <c r="K94" s="6" t="s">
         <v>131</v>
       </c>
@@ -8748,7 +8748,7 @@
       <c r="I95" s="6">
         <v>13.167</v>
       </c>
-      <c r="J95" s="29"/>
+      <c r="J95" s="28"/>
       <c r="K95" s="6" t="s">
         <v>131</v>
       </c>
@@ -8796,7 +8796,7 @@
       <c r="I96" s="9">
         <v>18.2</v>
       </c>
-      <c r="J96" s="29"/>
+      <c r="J96" s="28"/>
       <c r="K96" s="6" t="s">
         <v>131</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="I97" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J97" s="29"/>
+      <c r="J97" s="28"/>
       <c r="K97" s="6" t="s">
         <v>131</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="I98" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J98" s="29"/>
+      <c r="J98" s="28"/>
       <c r="K98" s="6" t="s">
         <v>131</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="I99" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J99" s="29"/>
+      <c r="J99" s="28"/>
       <c r="K99" s="6" t="s">
         <v>131</v>
       </c>
@@ -8988,7 +8988,7 @@
       <c r="I100" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J100" s="29"/>
+      <c r="J100" s="28"/>
       <c r="K100" s="6" t="s">
         <v>131</v>
       </c>
@@ -9036,7 +9036,7 @@
       <c r="I101" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J101" s="29"/>
+      <c r="J101" s="28"/>
       <c r="K101" s="6" t="s">
         <v>131</v>
       </c>
@@ -9084,7 +9084,7 @@
       <c r="I102" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J102" s="29"/>
+      <c r="J102" s="28"/>
       <c r="K102" s="6" t="s">
         <v>131</v>
       </c>
@@ -9132,7 +9132,7 @@
       <c r="I103" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J103" s="29"/>
+      <c r="J103" s="28"/>
       <c r="K103" s="6" t="s">
         <v>131</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="I104" s="6">
         <v>22.132999999999999</v>
       </c>
-      <c r="J104" s="29"/>
+      <c r="J104" s="28"/>
       <c r="K104" s="6" t="s">
         <v>131</v>
       </c>
@@ -9228,7 +9228,7 @@
       <c r="I105" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J105" s="29"/>
+      <c r="J105" s="28"/>
       <c r="K105" s="6" t="s">
         <v>131</v>
       </c>
@@ -9276,7 +9276,7 @@
       <c r="I106" s="6">
         <v>11.867000000000001</v>
       </c>
-      <c r="J106" s="29"/>
+      <c r="J106" s="28"/>
       <c r="K106" s="6" t="s">
         <v>131</v>
       </c>
@@ -9309,19 +9309,19 @@
         <v>41</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="31"/>
+        <v>298</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="31"/>
+      <c r="O107" s="30"/>
       <c r="P107" s="9"/>
       <c r="Q107" s="15" t="s">
         <v>42</v>
@@ -9406,7 +9406,7 @@
       <c r="I109" s="6">
         <v>10.766999999999999</v>
       </c>
-      <c r="J109" s="29"/>
+      <c r="J109" s="28"/>
       <c r="K109" s="6" t="s">
         <v>131</v>
       </c>
@@ -9454,7 +9454,7 @@
       <c r="I110" s="6">
         <v>34.533000000000001</v>
       </c>
-      <c r="J110" s="29"/>
+      <c r="J110" s="28"/>
       <c r="K110" s="6" t="s">
         <v>131</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="O110" s="9">
         <v>0.187</v>
       </c>
-      <c r="P110" s="33">
+      <c r="P110" s="32">
         <v>9.4E-2</v>
       </c>
       <c r="Q110" s="15">
@@ -9502,7 +9502,7 @@
       <c r="I111" s="9">
         <v>27.7</v>
       </c>
-      <c r="J111" s="29"/>
+      <c r="J111" s="28"/>
       <c r="K111" s="6" t="s">
         <v>131</v>
       </c>
@@ -9516,7 +9516,7 @@
       <c r="O111" s="9">
         <v>0.182</v>
       </c>
-      <c r="P111" s="33">
+      <c r="P111" s="32">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="Q111" s="15">
@@ -9550,7 +9550,7 @@
       <c r="I112" s="6">
         <v>34.533000000000001</v>
       </c>
-      <c r="J112" s="29"/>
+      <c r="J112" s="28"/>
       <c r="K112" s="6" t="s">
         <v>131</v>
       </c>
@@ -9564,7 +9564,7 @@
       <c r="O112" s="9">
         <v>1.256</v>
       </c>
-      <c r="P112" s="33">
+      <c r="P112" s="32">
         <v>0.628</v>
       </c>
       <c r="Q112" s="15">
@@ -9876,7 +9876,7 @@
       <c r="O118" s="9">
         <v>8.298</v>
       </c>
-      <c r="P118" s="33">
+      <c r="P118" s="32">
         <v>4.149</v>
       </c>
       <c r="Q118" s="15">
@@ -9930,7 +9930,7 @@
       <c r="O119" s="9">
         <v>8.298</v>
       </c>
-      <c r="P119" s="33">
+      <c r="P119" s="32">
         <v>4.149</v>
       </c>
       <c r="Q119" s="15">
@@ -9984,7 +9984,7 @@
       <c r="O120" s="9">
         <v>8.298</v>
       </c>
-      <c r="P120" s="33">
+      <c r="P120" s="32">
         <v>4.149</v>
       </c>
       <c r="Q120" s="15">
@@ -10038,7 +10038,7 @@
       <c r="O121" s="9">
         <v>8.298</v>
       </c>
-      <c r="P121" s="33">
+      <c r="P121" s="32">
         <v>4.149</v>
       </c>
       <c r="Q121" s="15">
@@ -10092,7 +10092,7 @@
       <c r="O122" s="9">
         <v>8.298</v>
       </c>
-      <c r="P122" s="33">
+      <c r="P122" s="32">
         <v>4.149</v>
       </c>
       <c r="Q122" s="15">
@@ -10146,7 +10146,7 @@
       <c r="O123" s="9">
         <v>8.2729999999999997</v>
       </c>
-      <c r="P123" s="33">
+      <c r="P123" s="32">
         <v>4.1369999999999996</v>
       </c>
       <c r="Q123" s="15">
@@ -10200,7 +10200,7 @@
       <c r="O124" s="9">
         <v>8.2729999999999997</v>
       </c>
-      <c r="P124" s="33">
+      <c r="P124" s="32">
         <v>4.1369999999999996</v>
       </c>
       <c r="Q124" s="15">
@@ -10254,7 +10254,7 @@
       <c r="O125" s="9">
         <v>8.2729999999999997</v>
       </c>
-      <c r="P125" s="33">
+      <c r="P125" s="32">
         <v>4.1369999999999996</v>
       </c>
       <c r="Q125" s="15">
@@ -10308,7 +10308,7 @@
       <c r="O126" s="9">
         <v>8.2729999999999997</v>
       </c>
-      <c r="P126" s="33">
+      <c r="P126" s="32">
         <v>4.1369999999999996</v>
       </c>
       <c r="Q126" s="15">
@@ -10362,7 +10362,7 @@
       <c r="O127" s="9">
         <v>8.2729999999999997</v>
       </c>
-      <c r="P127" s="33">
+      <c r="P127" s="32">
         <v>4.1369999999999996</v>
       </c>
       <c r="Q127" s="15">
@@ -10416,7 +10416,7 @@
       <c r="O128" s="9">
         <v>10.821999999999999</v>
       </c>
-      <c r="P128" s="33">
+      <c r="P128" s="32">
         <v>5.4109999999999996</v>
       </c>
       <c r="Q128" s="15">
@@ -10470,7 +10470,7 @@
       <c r="O129" s="9">
         <v>10.821999999999999</v>
       </c>
-      <c r="P129" s="33">
+      <c r="P129" s="32">
         <v>5.4109999999999996</v>
       </c>
       <c r="Q129" s="15">
@@ -10524,7 +10524,7 @@
       <c r="O130" s="9">
         <v>10.821999999999999</v>
       </c>
-      <c r="P130" s="33">
+      <c r="P130" s="32">
         <v>5.4109999999999996</v>
       </c>
       <c r="Q130" s="15">
@@ -10578,7 +10578,7 @@
       <c r="O131" s="9">
         <v>10.821999999999999</v>
       </c>
-      <c r="P131" s="33">
+      <c r="P131" s="32">
         <v>5.4109999999999996</v>
       </c>
       <c r="Q131" s="15">
@@ -10632,7 +10632,7 @@
       <c r="O132" s="9">
         <v>10.821999999999999</v>
       </c>
-      <c r="P132" s="33">
+      <c r="P132" s="32">
         <v>5.4109999999999996</v>
       </c>
       <c r="Q132" s="15">
@@ -10686,7 +10686,7 @@
       <c r="O133" s="9">
         <v>2.3170000000000002</v>
       </c>
-      <c r="P133" s="33">
+      <c r="P133" s="32">
         <v>1.159</v>
       </c>
       <c r="Q133" s="15">
@@ -11941,17 +11941,17 @@
       <c r="D157" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E157" s="27"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="27"/>
-      <c r="M157" s="31"/>
-      <c r="N157" s="32"/>
-      <c r="O157" s="31"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="26"/>
+      <c r="M157" s="30"/>
+      <c r="N157" s="31"/>
+      <c r="O157" s="30"/>
       <c r="P157" s="9"/>
       <c r="Q157" s="15">
         <v>100</v>
@@ -13350,7 +13350,7 @@
       <c r="O184" s="9">
         <v>70.435000000000002</v>
       </c>
-      <c r="P184" s="33">
+      <c r="P184" s="32">
         <v>0</v>
       </c>
       <c r="Q184" s="15">
@@ -13558,7 +13558,7 @@
       <c r="O188" s="9">
         <v>2.1030000000000002</v>
       </c>
-      <c r="P188" s="33">
+      <c r="P188" s="32">
         <v>1.052</v>
       </c>
       <c r="Q188" s="15">
@@ -13629,18 +13629,18 @@
       <c r="D190" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E190" s="27"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="30"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="29"/>
-      <c r="K190" s="27"/>
-      <c r="L190" s="27"/>
-      <c r="M190" s="31"/>
-      <c r="N190" s="32"/>
-      <c r="O190" s="31"/>
-      <c r="P190" s="31"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="29"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="26"/>
+      <c r="M190" s="30"/>
+      <c r="N190" s="31"/>
+      <c r="O190" s="30"/>
+      <c r="P190" s="30"/>
       <c r="Q190" s="15">
         <v>20</v>
       </c>
@@ -13672,7 +13672,7 @@
       <c r="I191" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J191" s="29"/>
+      <c r="J191" s="28"/>
       <c r="K191" s="6" t="s">
         <v>131</v>
       </c>
@@ -13896,7 +13896,7 @@
       <c r="O195" s="9">
         <v>31.927</v>
       </c>
-      <c r="P195" s="33">
+      <c r="P195" s="32">
         <v>15.964</v>
       </c>
       <c r="Q195" s="15">
@@ -14056,7 +14056,7 @@
       <c r="O198" s="9">
         <v>3.758</v>
       </c>
-      <c r="P198" s="33">
+      <c r="P198" s="32">
         <v>2.6309999999999998</v>
       </c>
       <c r="Q198" s="15">
@@ -14162,7 +14162,7 @@
       <c r="O200" s="9">
         <v>41.3</v>
       </c>
-      <c r="P200" s="33">
+      <c r="P200" s="32">
         <v>28.91</v>
       </c>
       <c r="Q200" s="15">
@@ -14522,7 +14522,7 @@
       <c r="O207" s="9">
         <v>1262.0229999999999</v>
       </c>
-      <c r="P207" s="33">
+      <c r="P207" s="32">
         <v>1262.0229999999999</v>
       </c>
       <c r="Q207" s="15">
@@ -15232,7 +15232,7 @@
       <c r="I221" s="6">
         <v>35.866999999999997</v>
       </c>
-      <c r="J221" s="29"/>
+      <c r="J221" s="28"/>
       <c r="K221" s="6" t="s">
         <v>120</v>
       </c>
@@ -15282,7 +15282,7 @@
       <c r="I222" s="9">
         <v>30</v>
       </c>
-      <c r="J222" s="29"/>
+      <c r="J222" s="28"/>
       <c r="K222" s="6" t="s">
         <v>120</v>
       </c>
@@ -15332,7 +15332,7 @@
       <c r="I223" s="9">
         <v>23.8</v>
       </c>
-      <c r="J223" s="29"/>
+      <c r="J223" s="28"/>
       <c r="K223" s="6" t="s">
         <v>120</v>
       </c>
@@ -15598,7 +15598,7 @@
       <c r="O228" s="9">
         <v>16.256</v>
       </c>
-      <c r="P228" s="33">
+      <c r="P228" s="32">
         <v>8.1280000000000001</v>
       </c>
       <c r="Q228" s="15">
@@ -16679,17 +16679,17 @@
       <c r="D249" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E249" s="27"/>
-      <c r="F249" s="28"/>
-      <c r="G249" s="29"/>
-      <c r="H249" s="30"/>
-      <c r="I249" s="27"/>
-      <c r="J249" s="29"/>
-      <c r="K249" s="27"/>
-      <c r="L249" s="27"/>
-      <c r="M249" s="31"/>
-      <c r="N249" s="32"/>
-      <c r="O249" s="31"/>
+      <c r="E249" s="26"/>
+      <c r="F249" s="27"/>
+      <c r="G249" s="28"/>
+      <c r="H249" s="29"/>
+      <c r="I249" s="26"/>
+      <c r="J249" s="28"/>
+      <c r="K249" s="26"/>
+      <c r="L249" s="26"/>
+      <c r="M249" s="30"/>
+      <c r="N249" s="31"/>
+      <c r="O249" s="30"/>
       <c r="P249" s="9"/>
       <c r="Q249" s="15">
         <v>100</v>
@@ -16740,7 +16740,7 @@
       <c r="O250" s="9">
         <v>0.94199999999999995</v>
       </c>
-      <c r="P250" s="33">
+      <c r="P250" s="32">
         <v>0.47099999999999997</v>
       </c>
       <c r="Q250" s="15">
@@ -16792,7 +16792,7 @@
       <c r="O251" s="9">
         <v>0.89200000000000002</v>
       </c>
-      <c r="P251" s="33">
+      <c r="P251" s="32">
         <v>0.44600000000000001</v>
       </c>
       <c r="Q251" s="15">
@@ -16844,7 +16844,7 @@
       <c r="O252" s="9">
         <v>0.83</v>
       </c>
-      <c r="P252" s="33">
+      <c r="P252" s="32">
         <v>0.41499999999999998</v>
       </c>
       <c r="Q252" s="15">
@@ -16896,7 +16896,7 @@
       <c r="O253" s="9">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="P253" s="33">
+      <c r="P253" s="32">
         <v>1.6E-2</v>
       </c>
       <c r="Q253" s="15">
@@ -17142,7 +17142,7 @@
       <c r="I258" s="9">
         <v>30.8</v>
       </c>
-      <c r="J258" s="29"/>
+      <c r="J258" s="28"/>
       <c r="K258" s="6" t="s">
         <v>120</v>
       </c>
@@ -17158,7 +17158,7 @@
       <c r="O258" s="9">
         <v>0.67100000000000004</v>
       </c>
-      <c r="P258" s="33">
+      <c r="P258" s="32">
         <v>0.47</v>
       </c>
       <c r="Q258" s="15">
@@ -17346,7 +17346,7 @@
       <c r="I262" s="9">
         <v>12.6</v>
       </c>
-      <c r="J262" s="29"/>
+      <c r="J262" s="28"/>
       <c r="K262" s="6" t="s">
         <v>131</v>
       </c>
@@ -17360,7 +17360,7 @@
       <c r="O262" s="9">
         <v>0.81200000000000006</v>
       </c>
-      <c r="P262" s="33">
+      <c r="P262" s="32">
         <v>0.40600000000000003</v>
       </c>
       <c r="Q262" s="15">
@@ -17394,7 +17394,7 @@
       <c r="I263" s="9">
         <v>12.6</v>
       </c>
-      <c r="J263" s="29"/>
+      <c r="J263" s="28"/>
       <c r="K263" s="6" t="s">
         <v>131</v>
       </c>
@@ -17408,7 +17408,7 @@
       <c r="O263" s="9">
         <v>0.81200000000000006</v>
       </c>
-      <c r="P263" s="33">
+      <c r="P263" s="32">
         <v>0.40600000000000003</v>
       </c>
       <c r="Q263" s="15">
@@ -17442,7 +17442,7 @@
       <c r="I264" s="9">
         <v>12.6</v>
       </c>
-      <c r="J264" s="29"/>
+      <c r="J264" s="28"/>
       <c r="K264" s="6" t="s">
         <v>131</v>
       </c>
@@ -17456,7 +17456,7 @@
       <c r="O264" s="9">
         <v>0.81200000000000006</v>
       </c>
-      <c r="P264" s="33">
+      <c r="P264" s="32">
         <v>0.40600000000000003</v>
       </c>
       <c r="Q264" s="15">
@@ -17490,7 +17490,7 @@
       <c r="I265" s="9">
         <v>12.6</v>
       </c>
-      <c r="J265" s="29"/>
+      <c r="J265" s="28"/>
       <c r="K265" s="6" t="s">
         <v>131</v>
       </c>
@@ -17504,7 +17504,7 @@
       <c r="O265" s="9">
         <v>1.1040000000000001</v>
       </c>
-      <c r="P265" s="33">
+      <c r="P265" s="32">
         <v>0.55200000000000005</v>
       </c>
       <c r="Q265" s="15">
@@ -17538,7 +17538,7 @@
       <c r="I266" s="6">
         <v>31.367000000000001</v>
       </c>
-      <c r="J266" s="29"/>
+      <c r="J266" s="28"/>
       <c r="K266" s="6" t="s">
         <v>131</v>
       </c>
@@ -17552,7 +17552,7 @@
       <c r="O266" s="9">
         <v>1.395</v>
       </c>
-      <c r="P266" s="33">
+      <c r="P266" s="32">
         <v>0.69799999999999995</v>
       </c>
       <c r="Q266" s="15">
@@ -17586,7 +17586,7 @@
       <c r="I267" s="6">
         <v>25.132999999999999</v>
       </c>
-      <c r="J267" s="29"/>
+      <c r="J267" s="28"/>
       <c r="K267" s="6" t="s">
         <v>131</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="O267" s="9">
         <v>0.27500000000000002</v>
       </c>
-      <c r="P267" s="33">
+      <c r="P267" s="32">
         <v>0.13800000000000001</v>
       </c>
       <c r="Q267" s="15">
@@ -17634,7 +17634,7 @@
       <c r="I268" s="6">
         <v>25.367000000000001</v>
       </c>
-      <c r="J268" s="29"/>
+      <c r="J268" s="28"/>
       <c r="K268" s="6" t="s">
         <v>131</v>
       </c>
@@ -17648,7 +17648,7 @@
       <c r="O268" s="9">
         <v>1.4970000000000001</v>
       </c>
-      <c r="P268" s="33">
+      <c r="P268" s="32">
         <v>0.749</v>
       </c>
       <c r="Q268" s="15">
@@ -17682,7 +17682,7 @@
       <c r="I269" s="6">
         <v>19.367000000000001</v>
       </c>
-      <c r="J269" s="29"/>
+      <c r="J269" s="28"/>
       <c r="K269" s="6" t="s">
         <v>131</v>
       </c>
@@ -17696,7 +17696,7 @@
       <c r="O269" s="9">
         <v>1.3560000000000001</v>
       </c>
-      <c r="P269" s="33">
+      <c r="P269" s="32">
         <v>0.67800000000000005</v>
       </c>
       <c r="Q269" s="15">
@@ -17730,7 +17730,7 @@
       <c r="I270" s="6">
         <v>13.367000000000001</v>
       </c>
-      <c r="J270" s="29"/>
+      <c r="J270" s="28"/>
       <c r="K270" s="6" t="s">
         <v>131</v>
       </c>
@@ -17744,7 +17744,7 @@
       <c r="O270" s="9">
         <v>1.2969999999999999</v>
       </c>
-      <c r="P270" s="33">
+      <c r="P270" s="32">
         <v>0.64900000000000002</v>
       </c>
       <c r="Q270" s="15">
@@ -18868,7 +18868,7 @@
       <c r="O291" s="9">
         <v>0.30099999999999999</v>
       </c>
-      <c r="P291" s="33">
+      <c r="P291" s="32">
         <v>0.151</v>
       </c>
       <c r="Q291" s="15">
@@ -18902,7 +18902,7 @@
       <c r="I292" s="6">
         <v>39.433</v>
       </c>
-      <c r="J292" s="29"/>
+      <c r="J292" s="28"/>
       <c r="K292" s="6" t="s">
         <v>131</v>
       </c>
@@ -18950,7 +18950,7 @@
       <c r="I293" s="6">
         <v>39.433</v>
       </c>
-      <c r="J293" s="29"/>
+      <c r="J293" s="28"/>
       <c r="K293" s="6" t="s">
         <v>131</v>
       </c>
@@ -18998,7 +18998,7 @@
       <c r="I294" s="6">
         <v>39.433</v>
       </c>
-      <c r="J294" s="29"/>
+      <c r="J294" s="28"/>
       <c r="K294" s="6" t="s">
         <v>131</v>
       </c>
@@ -19046,7 +19046,7 @@
       <c r="I295" s="6">
         <v>39.433</v>
       </c>
-      <c r="J295" s="29"/>
+      <c r="J295" s="28"/>
       <c r="K295" s="6" t="s">
         <v>131</v>
       </c>
@@ -19094,7 +19094,7 @@
       <c r="I296" s="6">
         <v>39.433</v>
       </c>
-      <c r="J296" s="29"/>
+      <c r="J296" s="28"/>
       <c r="K296" s="6" t="s">
         <v>131</v>
       </c>
@@ -19142,7 +19142,7 @@
       <c r="I297" s="6">
         <v>39.433</v>
       </c>
-      <c r="J297" s="29"/>
+      <c r="J297" s="28"/>
       <c r="K297" s="6" t="s">
         <v>131</v>
       </c>
@@ -19190,7 +19190,7 @@
       <c r="I298" s="6">
         <v>39.433</v>
       </c>
-      <c r="J298" s="29"/>
+      <c r="J298" s="28"/>
       <c r="K298" s="6" t="s">
         <v>131</v>
       </c>
@@ -19308,7 +19308,7 @@
       <c r="O300" s="9">
         <v>0.20100000000000001</v>
       </c>
-      <c r="P300" s="33">
+      <c r="P300" s="32">
         <v>0.10100000000000001</v>
       </c>
       <c r="Q300" s="15">
@@ -19360,7 +19360,7 @@
       <c r="O301" s="9">
         <v>0.16</v>
       </c>
-      <c r="P301" s="33">
+      <c r="P301" s="32">
         <v>0.08</v>
       </c>
       <c r="Q301" s="15">
@@ -19412,7 +19412,7 @@
       <c r="O302" s="9">
         <v>0.251</v>
       </c>
-      <c r="P302" s="33">
+      <c r="P302" s="32">
         <v>0.126</v>
       </c>
       <c r="Q302" s="15">
@@ -19878,7 +19878,7 @@
       <c r="O311" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P311" s="33">
+      <c r="P311" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q311" s="15">
@@ -19932,7 +19932,7 @@
       <c r="O312" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P312" s="33">
+      <c r="P312" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q312" s="9">
@@ -19986,7 +19986,7 @@
       <c r="O313" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P313" s="33">
+      <c r="P313" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q313" s="9">
@@ -20040,7 +20040,7 @@
       <c r="O314" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P314" s="33">
+      <c r="P314" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q314" s="9">
@@ -20094,7 +20094,7 @@
       <c r="O315" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P315" s="33">
+      <c r="P315" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q315" s="9">
@@ -20148,7 +20148,7 @@
       <c r="O316" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P316" s="33">
+      <c r="P316" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q316" s="9">
@@ -20202,7 +20202,7 @@
       <c r="O317" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P317" s="33">
+      <c r="P317" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q317" s="9">
@@ -20256,7 +20256,7 @@
       <c r="O318" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P318" s="33">
+      <c r="P318" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q318" s="9">
@@ -20310,7 +20310,7 @@
       <c r="O319" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P319" s="33">
+      <c r="P319" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q319" s="9">
@@ -20364,7 +20364,7 @@
       <c r="O320" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P320" s="33">
+      <c r="P320" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q320" s="9">
@@ -20418,7 +20418,7 @@
       <c r="O321" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P321" s="33">
+      <c r="P321" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q321" s="9">
@@ -20472,7 +20472,7 @@
       <c r="O322" s="9">
         <v>9.6059999999999999</v>
       </c>
-      <c r="P322" s="33">
+      <c r="P322" s="32">
         <v>4.8029999999999999</v>
       </c>
       <c r="Q322" s="9">
@@ -21760,7 +21760,7 @@
       <c r="O347" s="9">
         <v>95.784000000000006</v>
       </c>
-      <c r="P347" s="33">
+      <c r="P347" s="32">
         <v>47.892000000000003</v>
       </c>
       <c r="Q347" s="3">
@@ -21812,7 +21812,7 @@
       <c r="O348" s="9">
         <v>118.129</v>
       </c>
-      <c r="P348" s="33">
+      <c r="P348" s="32">
         <v>59.064999999999998</v>
       </c>
       <c r="Q348" s="3">
@@ -21898,7 +21898,7 @@
       <c r="I350" s="9">
         <v>19.100000000000001</v>
       </c>
-      <c r="J350" s="29"/>
+      <c r="J350" s="28"/>
       <c r="K350" s="6" t="s">
         <v>131</v>
       </c>
@@ -21964,7 +21964,7 @@
       <c r="O351" s="9">
         <v>10.23</v>
       </c>
-      <c r="P351" s="33">
+      <c r="P351" s="32">
         <v>5.1150000000000002</v>
       </c>
       <c r="Q351" s="3">
@@ -23018,7 +23018,7 @@
       <c r="O371" s="9">
         <v>582.99099999999999</v>
       </c>
-      <c r="P371" s="33">
+      <c r="P371" s="32">
         <v>500</v>
       </c>
       <c r="Q371" s="15">
@@ -24776,7 +24776,7 @@
       <c r="O404" s="9">
         <v>313.79300000000001</v>
       </c>
-      <c r="P404" s="33">
+      <c r="P404" s="32">
         <v>156.89699999999999</v>
       </c>
       <c r="Q404" s="3">
@@ -24828,7 +24828,7 @@
       <c r="O405" s="9">
         <v>189.62299999999999</v>
       </c>
-      <c r="P405" s="33">
+      <c r="P405" s="32">
         <v>94.811999999999998</v>
       </c>
       <c r="Q405" s="3">
@@ -24880,7 +24880,7 @@
       <c r="O406" s="9">
         <v>16845.621999999999</v>
       </c>
-      <c r="P406" s="33">
+      <c r="P406" s="32">
         <v>500</v>
       </c>
       <c r="Q406" s="3">
@@ -25430,7 +25430,7 @@
       <c r="O417" s="9">
         <v>0.98399999999999999</v>
       </c>
-      <c r="P417" s="33">
+      <c r="P417" s="32">
         <v>0.49199999999999999</v>
       </c>
       <c r="Q417" s="3">
@@ -25555,18 +25555,18 @@
       <c r="D420" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E420" s="27"/>
-      <c r="F420" s="28"/>
-      <c r="G420" s="29"/>
-      <c r="H420" s="30"/>
-      <c r="I420" s="27"/>
-      <c r="J420" s="29"/>
-      <c r="K420" s="27"/>
-      <c r="L420" s="27"/>
-      <c r="M420" s="31"/>
-      <c r="N420" s="32"/>
-      <c r="O420" s="31"/>
-      <c r="P420" s="31"/>
+      <c r="E420" s="26"/>
+      <c r="F420" s="27"/>
+      <c r="G420" s="28"/>
+      <c r="H420" s="29"/>
+      <c r="I420" s="26"/>
+      <c r="J420" s="28"/>
+      <c r="K420" s="26"/>
+      <c r="L420" s="26"/>
+      <c r="M420" s="30"/>
+      <c r="N420" s="31"/>
+      <c r="O420" s="30"/>
+      <c r="P420" s="30"/>
       <c r="Q420" s="15">
         <v>20</v>
       </c>
@@ -25727,7 +25727,7 @@
       <c r="R423" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:R423"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -35880,11 +35880,11 @@
       <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36" t="s">
         <v>630</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
